--- a/outputs-HGR-r202-archive/g__Mesosutterella_train.xlsx
+++ b/outputs-HGR-r202-archive/g__Mesosutterella_train.xlsx
@@ -502,7 +502,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -582,17 +582,17 @@
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_001182045_3.fasta</t>
+          <t>label_GCF_001182045_0.fasta</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1518285964865834</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8481714035134166</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8481714035134166</v>
+        <v>1</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -603,82 +603,61 @@
     <row r="5">
       <c r="A5" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_001182045_0.fasta</t>
+          <t>label_GCF_001182045_2.fasta</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>2.220446049250264e-14</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>s__Mesosutterella multiformis</t>
+          <t>s__Mesosutterella massiliensis</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_001182045_2.fasta</t>
+          <t>label_GCF_001182045_1.fasta</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.06566232553900908</v>
       </c>
       <c r="C6" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>0.9343376744609909</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9343376744609909</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>s__Mesosutterella massiliensis</t>
+          <t>s__Mesosutterella multiformis</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_001182045_1.fasta</t>
+          <t>label_GCF_001182045_4.fasta</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.06566232553900908</v>
+        <v>0.0491416807836551</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9343376744609909</v>
+        <v>0.9508583192163449</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9343376744609909</v>
+        <v>0.9508583192163449</v>
       </c>
       <c r="E7" t="inlineStr">
-        <is>
-          <t>s__Mesosutterella multiformis</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="11" t="inlineStr">
-        <is>
-          <t>label_GCF_001182045_4.fasta</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0.0491416807836551</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.9508583192163449</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.9508583192163449</v>
-      </c>
-      <c r="E8" t="inlineStr">
         <is>
           <t>s__Mesosutterella multiformis</t>
         </is>
@@ -695,7 +674,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -859,17 +838,17 @@
     <row r="8">
       <c r="A8" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS117_2.fasta</t>
+          <t>label_UMGS117_1.fasta</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.322990229669623</v>
+        <v>0.1587442831004855</v>
       </c>
       <c r="C8" t="n">
-        <v>0.677009770330377</v>
+        <v>0.8412557168995145</v>
       </c>
       <c r="D8" t="n">
-        <v>0.677009770330377</v>
+        <v>0.8412557168995145</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -880,17 +859,17 @@
     <row r="9">
       <c r="A9" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS117_22.fasta</t>
+          <t>label_UMGS117_13.fasta</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01099214495389123</v>
+        <v>0.1299869898655178</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9890078550461088</v>
+        <v>0.8700130101344822</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9890078550461088</v>
+        <v>0.8700130101344822</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -901,17 +880,17 @@
     <row r="10">
       <c r="A10" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS117_3.fasta</t>
+          <t>label_UMGS117_15.fasta</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.01208288390236412</v>
+        <v>0.1134422922879632</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9879171160976359</v>
+        <v>0.8865577077120368</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9879171160976359</v>
+        <v>0.8865577077120368</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -922,17 +901,17 @@
     <row r="11">
       <c r="A11" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS117_30.fasta</t>
+          <t>label_UMGS117_17.fasta</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.01364061857311372</v>
+        <v>0.1177960450553451</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9863593814268863</v>
+        <v>0.8822039549446549</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9863593814268863</v>
+        <v>0.8822039549446549</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -943,17 +922,17 @@
     <row r="12">
       <c r="A12" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS117_36.fasta</t>
+          <t>label_UMGS117_20.fasta</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2669913814038561</v>
+        <v>0.1098077846835627</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7330086185961439</v>
+        <v>0.8901922153164373</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7330086185961439</v>
+        <v>0.8901922153164373</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -964,38 +943,38 @@
     <row r="13">
       <c r="A13" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS117_38.fasta</t>
+          <t>label_UMGS117_29.fasta</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.8421464673041088</v>
+        <v>0.1029537196325814</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1578535326958913</v>
+        <v>0.8970462803674186</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8421464673041088</v>
+        <v>0.8970462803674186</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>s__Mesosutterella massiliensis</t>
+          <t>s__Mesosutterella multiformis</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS117_4.fasta</t>
+          <t>label_UMGS117_34.fasta</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.2379932084917658</v>
+        <v>0.1241834345697649</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7620067915082342</v>
+        <v>0.8758165654302351</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7620067915082342</v>
+        <v>0.8758165654302351</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1006,17 +985,17 @@
     <row r="15">
       <c r="A15" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS117_6.fasta</t>
+          <t>label_UMGS117_37.fasta</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.2071836391894097</v>
+        <v>0.2749523636532191</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7928163608105903</v>
+        <v>0.7250476363467809</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7928163608105903</v>
+        <v>0.7250476363467809</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1027,17 +1006,17 @@
     <row r="16">
       <c r="A16" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS117_1.fasta</t>
+          <t>label_UMGS117_5.fasta</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1587442831004855</v>
+        <v>0.1128861408388131</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8412557168995145</v>
+        <v>0.8871138591611869</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8412557168995145</v>
+        <v>0.8871138591611869</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1048,17 +1027,17 @@
     <row r="17">
       <c r="A17" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS117_13.fasta</t>
+          <t>label_UMGS117_14.fasta</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.1299869898655178</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8700130101344822</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8700130101344822</v>
+        <v>1</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1069,17 +1048,17 @@
     <row r="18">
       <c r="A18" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS117_15.fasta</t>
+          <t>label_UMGS117_16.fasta</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.1134422922879632</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8865577077120368</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8865577077120368</v>
+        <v>1</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1090,17 +1069,17 @@
     <row r="19">
       <c r="A19" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS117_17.fasta</t>
+          <t>label_UMGS117_18.fasta</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.1177960450553451</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8822039549446549</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8822039549446549</v>
+        <v>1</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1111,17 +1090,17 @@
     <row r="20">
       <c r="A20" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS117_20.fasta</t>
+          <t>label_UMGS117_25.fasta</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.1098077846835627</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.8901922153164373</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8901922153164373</v>
+        <v>1</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1132,17 +1111,17 @@
     <row r="21">
       <c r="A21" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS117_29.fasta</t>
+          <t>label_UMGS117_27.fasta</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.1029537196325814</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.8970462803674186</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>0.8970462803674186</v>
+        <v>1</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1153,17 +1132,17 @@
     <row r="22">
       <c r="A22" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS117_34.fasta</t>
+          <t>label_UMGS117_35.fasta</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.1241834345697649</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8758165654302351</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>0.8758165654302351</v>
+        <v>1</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1174,17 +1153,17 @@
     <row r="23">
       <c r="A23" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS117_37.fasta</t>
+          <t>label_UMGS117_9.fasta</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.2749523636532191</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7250476363467809</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>0.7250476363467809</v>
+        <v>1</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1195,17 +1174,17 @@
     <row r="24">
       <c r="A24" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS117_5.fasta</t>
+          <t>label_UMGS117_0.fasta</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.1128861408388131</v>
+        <v>0.1416696583098666</v>
       </c>
       <c r="C24" t="n">
-        <v>0.8871138591611869</v>
+        <v>0.8583303416901334</v>
       </c>
       <c r="D24" t="n">
-        <v>0.8871138591611869</v>
+        <v>0.8583303416901334</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1216,17 +1195,17 @@
     <row r="25">
       <c r="A25" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS117_14.fasta</t>
+          <t>label_UMGS117_10.fasta</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>0.08385371740680569</v>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>0.9161462825931943</v>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>0.9161462825931943</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1237,17 +1216,17 @@
     <row r="26">
       <c r="A26" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS117_16.fasta</t>
+          <t>label_UMGS117_11.fasta</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>0.1183359887185926</v>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>0.8816640112814074</v>
       </c>
       <c r="D26" t="n">
-        <v>1</v>
+        <v>0.8816640112814074</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1258,17 +1237,17 @@
     <row r="27">
       <c r="A27" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS117_18.fasta</t>
+          <t>label_UMGS117_19.fasta</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>0.04990217435977773</v>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>0.9500978256402223</v>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
+        <v>0.9500978256402223</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1279,17 +1258,17 @@
     <row r="28">
       <c r="A28" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS117_25.fasta</t>
+          <t>label_UMGS117_23.fasta</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>0.03516580301656302</v>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>0.964834196983437</v>
       </c>
       <c r="D28" t="n">
-        <v>1</v>
+        <v>0.964834196983437</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1300,17 +1279,17 @@
     <row r="29">
       <c r="A29" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS117_27.fasta</t>
+          <t>label_UMGS117_26.fasta</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>0.03781073996611695</v>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>0.9621892600338831</v>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v>0.9621892600338831</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1321,17 +1300,17 @@
     <row r="30">
       <c r="A30" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS117_35.fasta</t>
+          <t>label_UMGS117_28.fasta</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>0.03708079963995237</v>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>0.9629192003600476</v>
       </c>
       <c r="D30" t="n">
-        <v>1</v>
+        <v>0.9629192003600476</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1342,17 +1321,17 @@
     <row r="31">
       <c r="A31" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS117_9.fasta</t>
+          <t>label_UMGS117_32.fasta</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>0.05656152218793076</v>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>0.9434384778120692</v>
       </c>
       <c r="D31" t="n">
-        <v>1</v>
+        <v>0.9434384778120692</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1363,17 +1342,17 @@
     <row r="32">
       <c r="A32" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS117_0.fasta</t>
+          <t>label_UMGS117_33.fasta</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.1416696583098666</v>
+        <v>0.07763563753773461</v>
       </c>
       <c r="C32" t="n">
-        <v>0.8583303416901334</v>
+        <v>0.9223643624622654</v>
       </c>
       <c r="D32" t="n">
-        <v>0.8583303416901334</v>
+        <v>0.9223643624622654</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1384,17 +1363,17 @@
     <row r="33">
       <c r="A33" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS117_10.fasta</t>
+          <t>label_UMGS117_12.fasta</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.08385371740680569</v>
+        <v>0.08026716771168664</v>
       </c>
       <c r="C33" t="n">
-        <v>0.9161462825931943</v>
+        <v>0.9197328322883134</v>
       </c>
       <c r="D33" t="n">
-        <v>0.9161462825931943</v>
+        <v>0.9197328322883134</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1405,17 +1384,17 @@
     <row r="34">
       <c r="A34" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS117_11.fasta</t>
+          <t>label_UMGS117_21.fasta</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.1183359887185926</v>
+        <v>0.1017114662410162</v>
       </c>
       <c r="C34" t="n">
-        <v>0.8816640112814074</v>
+        <v>0.8982885337589838</v>
       </c>
       <c r="D34" t="n">
-        <v>0.8816640112814074</v>
+        <v>0.8982885337589838</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1426,17 +1405,17 @@
     <row r="35">
       <c r="A35" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS117_19.fasta</t>
+          <t>label_UMGS117_24.fasta</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.04990217435977773</v>
+        <v>0.1053607738753036</v>
       </c>
       <c r="C35" t="n">
-        <v>0.9500978256402223</v>
+        <v>0.8946392261246964</v>
       </c>
       <c r="D35" t="n">
-        <v>0.9500978256402223</v>
+        <v>0.8946392261246964</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1447,17 +1426,17 @@
     <row r="36">
       <c r="A36" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS117_23.fasta</t>
+          <t>label_UMGS117_31.fasta</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.03516580301656302</v>
+        <v>0.06868194294154772</v>
       </c>
       <c r="C36" t="n">
-        <v>0.964834196983437</v>
+        <v>0.9313180570584523</v>
       </c>
       <c r="D36" t="n">
-        <v>0.964834196983437</v>
+        <v>0.9313180570584523</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1468,17 +1447,17 @@
     <row r="37">
       <c r="A37" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS117_26.fasta</t>
+          <t>label_UMGS117_7.fasta</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.03781073996611695</v>
+        <v>0.08336604250444313</v>
       </c>
       <c r="C37" t="n">
-        <v>0.9621892600338831</v>
+        <v>0.9166339574955569</v>
       </c>
       <c r="D37" t="n">
-        <v>0.9621892600338831</v>
+        <v>0.9166339574955569</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1489,187 +1468,19 @@
     <row r="38">
       <c r="A38" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS117_28.fasta</t>
+          <t>label_UMGS117_8.fasta</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.03708079963995237</v>
+        <v>0.07421546601458162</v>
       </c>
       <c r="C38" t="n">
-        <v>0.9629192003600476</v>
+        <v>0.9257845339854184</v>
       </c>
       <c r="D38" t="n">
-        <v>0.9629192003600476</v>
+        <v>0.9257845339854184</v>
       </c>
       <c r="E38" t="inlineStr">
-        <is>
-          <t>s__Mesosutterella multiformis</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS117_32.fasta</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>0.05656152218793076</v>
-      </c>
-      <c r="C39" t="n">
-        <v>0.9434384778120692</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0.9434384778120692</v>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>s__Mesosutterella multiformis</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS117_33.fasta</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>0.07763563753773461</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0.9223643624622654</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0.9223643624622654</v>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>s__Mesosutterella multiformis</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS117_12.fasta</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>0.08026716771168664</v>
-      </c>
-      <c r="C41" t="n">
-        <v>0.9197328322883134</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0.9197328322883134</v>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>s__Mesosutterella multiformis</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS117_21.fasta</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>0.1017114662410162</v>
-      </c>
-      <c r="C42" t="n">
-        <v>0.8982885337589838</v>
-      </c>
-      <c r="D42" t="n">
-        <v>0.8982885337589838</v>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>s__Mesosutterella multiformis</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS117_24.fasta</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>0.1053607738753036</v>
-      </c>
-      <c r="C43" t="n">
-        <v>0.8946392261246964</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0.8946392261246964</v>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>s__Mesosutterella multiformis</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS117_31.fasta</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>0.06868194294154772</v>
-      </c>
-      <c r="C44" t="n">
-        <v>0.9313180570584523</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0.9313180570584523</v>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>s__Mesosutterella multiformis</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS117_7.fasta</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>0.08336604250444313</v>
-      </c>
-      <c r="C45" t="n">
-        <v>0.9166339574955569</v>
-      </c>
-      <c r="D45" t="n">
-        <v>0.9166339574955569</v>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>s__Mesosutterella multiformis</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS117_8.fasta</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>0.07421546601458162</v>
-      </c>
-      <c r="C46" t="n">
-        <v>0.9257845339854184</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0.9257845339854184</v>
-      </c>
-      <c r="E46" t="inlineStr">
         <is>
           <t>s__Mesosutterella multiformis</t>
         </is>
